--- a/analysis/post_gemini_data/participant350/easy.xlsx
+++ b/analysis/post_gemini_data/participant350/easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,182 +422,132 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>condstarte</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>methdocall</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>methdocall2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>methdodec</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>condstarte</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>literal</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>methdocall</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>methdocall2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>methdodec</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>methodcall2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>return</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>var3</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>var4</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fixation based metrics</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Revisit count</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15</v>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -618,29 +556,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Revisit count</t>
+          <t>Fixation count</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -650,29 +588,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fixation count</t>
+          <t>TTFF AOI (ms)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>3376.61</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>225</v>
+        <v>840.54</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>133598.72</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>137202.6</v>
       </c>
       <c r="L5" t="n">
-        <v>60</v>
+        <v>206.56</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -682,29 +620,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TTFF AOI (ms)</t>
+          <t>Dwell time (ms)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3376.61</v>
+        <v>2978.24</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>840.54</v>
+        <v>72234.59</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>133598.72</v>
+        <v>533.92</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>137202.6</v>
+        <v>333.7</v>
       </c>
       <c r="L6" t="n">
-        <v>206.56</v>
+        <v>14604.91</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -714,29 +652,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
+          <t>Dwell time (%)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2978.24</v>
+        <v>2.09</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>72234.59</v>
+        <v>50.79</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>533.92</v>
+        <v>0.38</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>333.7</v>
+        <v>0.23</v>
       </c>
       <c r="L7" t="n">
-        <v>14604.91</v>
+        <v>10.27</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -746,29 +684,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
+          <t>Fixation duration (ms)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.09</v>
+        <v>330.92</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>50.79</v>
+        <v>321.04</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.38</v>
+        <v>533.92</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>0.23</v>
+        <v>333.7</v>
       </c>
       <c r="L8" t="n">
-        <v>10.27</v>
+        <v>243.42</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -778,15 +716,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
+          <t>First fixation duration (ms)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>330.92</v>
+        <v>100.06</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>321.04</v>
+        <v>208.68</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -800,7 +738,7 @@
         <v>333.7</v>
       </c>
       <c r="L9" t="n">
-        <v>243.42</v>
+        <v>550.55</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -808,32 +746,18 @@
       <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>First fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>100.06</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
-        <v>208.68</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>533.92</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>333.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>550.55</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
